--- a/docs/Si4463 project pinout.xlsx
+++ b/docs/Si4463 project pinout.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>EFM32HG STK</t>
   </si>
@@ -153,6 +153,30 @@
   </si>
   <si>
     <t>nIRQ</t>
+  </si>
+  <si>
+    <t>EFM32PG STK</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
   </si>
 </sst>
 </file>
@@ -416,6 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,7 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -716,22 +740,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="2" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -742,16 +766,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -767,9 +794,12 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -780,14 +810,17 @@
         <v>27</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -797,17 +830,18 @@
       <c r="C4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -817,17 +851,18 @@
       <c r="C5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -838,16 +873,19 @@
         <v>28</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="13">
         <v>3</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -858,14 +896,17 @@
         <v>29</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -876,14 +917,17 @@
         <v>30</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
@@ -894,14 +938,17 @@
         <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="12">
+      <c r="F9" s="12">
         <v>2</v>
       </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
@@ -912,14 +959,17 @@
         <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>6</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -930,16 +980,19 @@
         <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>4</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
@@ -949,17 +1002,18 @@
       <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -973,23 +1027,26 @@
         <v>26</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{2B854F98-3E0A-47EB-8343-80AF2D682331}"/>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{2B854F98-3E0A-47EB-8343-80AF2D682331}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1039,8 +1096,8 @@
       <c r="C3" s="6">
         <v>12</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="5">
         <v>1</v>
       </c>
@@ -1057,8 +1114,8 @@
       <c r="C4" s="15">
         <v>11</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="9">
         <v>2</v>
       </c>
@@ -1079,8 +1136,8 @@
       <c r="C5" s="8">
         <v>10</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="15">
         <v>3</v>
       </c>
@@ -1097,8 +1154,8 @@
       <c r="C6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="15">
         <v>4</v>
       </c>
@@ -1115,8 +1172,8 @@
       <c r="C7" s="12">
         <v>8</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
@@ -1133,8 +1190,8 @@
       <c r="C8" s="10">
         <v>7</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="11">
         <v>6</v>
       </c>
